--- a/CashFlow/W_cashflow.xlsx
+++ b/CashFlow/W_cashflow.xlsx
@@ -590,19 +590,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>206000000.0</v>
+        <v>9947000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>216000000.0</v>
+        <v>14687000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>138744000.0</v>
+        <v>2657000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>93857000.0</v>
+        <v>-13035000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>39284000.0</v>
+        <v>-15631000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-33278000.0</v>
@@ -688,19 +688,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>4502000000.0</v>
+        <v>531526000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>3459539000.0</v>
+        <v>1264215000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>2309714000.0</v>
+        <v>1364841000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>1121694000.0</v>
+        <v>962532000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>330325000.0</v>
+        <v>1123786000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>413700000.0</v>
